--- a/data/acc109/ages/data_18-30.xlsx.xlsx
+++ b/data/acc109/ages/data_18-30.xlsx.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="76">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -55,6 +55,12 @@
     <t>Value</t>
   </si>
   <si>
+    <t>Vertices</t>
+  </si>
+  <si>
+    <t>Edges</t>
+  </si>
+  <si>
     <t>Diameter</t>
   </si>
   <si>
@@ -65,9 +71,6 @@
   </si>
   <si>
     <t>Average path length</t>
-  </si>
-  <si>
-    <t>Girth</t>
   </si>
   <si>
     <t>Reciprocity</t>
@@ -629,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -651,7 +654,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>632</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -662,7 +665,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>6864</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -673,7 +676,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.01721198018014403</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -684,7 +687,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>4.036756267224621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -695,7 +698,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>0.01721198018014403</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -706,7 +709,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.04836829836829837</v>
+        <v>4.036756267224621</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -717,7 +720,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>4.85759493670886</v>
+        <v>0.04836829836829837</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -728,7 +731,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.05676072418854999</v>
+        <v>4.85759493670886</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -739,6 +742,17 @@
         <v>10</v>
       </c>
       <c r="C10">
+        <v>0.05676072418854999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
         <v>75.32867132867133</v>
       </c>
     </row>
@@ -757,43 +771,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -811,43 +825,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -865,43 +879,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -919,43 +933,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -973,43 +987,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1032,10 +1046,10 @@
         <v>0.06287425149700598</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1044,13 +1058,13 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1068,43 +1082,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1122,43 +1136,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1176,43 +1190,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1235,25 +1249,25 @@
         <v>0.005676075768044949</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1271,43 +1285,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1325,43 +1339,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1379,43 +1393,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1433,43 +1447,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1492,25 +1506,25 @@
         <v>0.002174932701886839</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1528,43 +1542,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1587,25 +1601,25 @@
         <v>0.005105162724017971</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1628,25 +1642,25 @@
         <v>0.004517156360182693</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1669,25 +1683,25 @@
         <v>0.00358257033264419</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1705,43 +1719,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1764,25 +1778,25 @@
         <v>0.00292702421402444</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1800,43 +1814,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1859,25 +1873,25 @@
         <v>0.006889831500065718</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1895,43 +1909,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1954,25 +1968,25 @@
         <v>0.01630523361956846</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1995,25 +2009,25 @@
         <v>0.00694892015474451</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2031,43 +2045,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2090,25 +2104,25 @@
         <v>0.004206461760735806</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2131,25 +2145,25 @@
         <v>0.006879568055831964</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2167,43 +2181,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2226,25 +2240,25 @@
         <v>0.003727247267336153</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2267,25 +2281,25 @@
         <v>0.003727247267336153</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2308,25 +2322,25 @@
         <v>0.006895407444571883</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2344,43 +2358,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2403,25 +2417,25 @@
         <v>0.003705251206133523</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2444,25 +2458,25 @@
         <v>0.007300888730752262</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2480,43 +2494,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2539,25 +2553,25 @@
         <v>0.009549016032597016</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2580,25 +2594,25 @@
         <v>0.005161630287890279</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2621,25 +2635,25 @@
         <v>0.005161630287890279</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2657,43 +2671,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2716,25 +2730,25 @@
         <v>0.004562996970439788</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2757,25 +2771,25 @@
         <v>0.004562996970439788</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2793,43 +2807,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2847,43 +2861,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2906,25 +2920,25 @@
         <v>0.005656260391236156</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2947,25 +2961,25 @@
         <v>0.005656260391236156</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2988,25 +3002,25 @@
         <v>0.005656260391236156</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3029,25 +3043,25 @@
         <v>0.005656260391236156</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J5">
         <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3070,22 +3084,22 @@
         <v>0.005656260391236156</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J6">
         <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3108,25 +3122,25 @@
         <v>0.005656260391236156</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J7">
         <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3144,43 +3158,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3203,25 +3217,25 @@
         <v>0.006064468459696014</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3244,22 +3258,22 @@
         <v>0.006064468459696014</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3282,25 +3296,25 @@
         <v>0.006064468459696014</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3323,25 +3337,25 @@
         <v>0.006064468459696014</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J5">
         <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3359,43 +3373,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3418,25 +3432,25 @@
         <v>0.006150818316245444</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3459,25 +3473,25 @@
         <v>0.006150818316245444</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3500,22 +3514,22 @@
         <v>0.01137901388505407</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3533,43 +3547,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3592,25 +3606,25 @@
         <v>0.005719810069327531</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3633,25 +3647,25 @@
         <v>0.005719810069327531</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3674,25 +3688,25 @@
         <v>0.005719810069327531</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3710,84 +3724,84 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -3807,17 +3821,17 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3837,17 +3851,17 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -3867,7 +3881,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3887,7 +3901,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -3907,7 +3921,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B23">
         <v>10</v>
@@ -3927,7 +3941,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B24">
         <v>1.5</v>
@@ -3947,7 +3961,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -3967,7 +3981,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -3987,7 +4001,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B27">
         <v>1.5</v>
@@ -4007,7 +4021,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B28">
         <v>2.666666666666667</v>
@@ -4027,7 +4041,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4047,7 +4061,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -4067,7 +4081,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4087,7 +4101,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B32">
         <v>1.333333333333333</v>
@@ -4107,7 +4121,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -4140,43 +4154,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -4194,43 +4208,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -4248,43 +4262,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -4302,43 +4316,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -4356,43 +4370,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -4410,43 +4424,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
